--- a/TrainedModel/0 Helpdesk/2F_P/2F_P_validation.xlsx
+++ b/TrainedModel/0 Helpdesk/2F_P/2F_P_validation.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5359472049689442</v>
+        <v>0.5225164411845634</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6174171842650101</v>
+        <v>0.6164424751215134</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2737577639751553</v>
+        <v>0.2634196246095795</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06811594202898552</v>
+        <v>0.05601544662680034</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3619565217391304</v>
+        <v>0.380197141932949</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7974637681159421</v>
+        <v>0.8019352917824528</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.1637892253675666</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8717054263565892</v>
+        <v>0.9122409358008438</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4907407407407407</v>
+        <v>0.4200713990676817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6_1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9030506874373044</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6_2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3595964676950594</v>
       </c>
     </row>
   </sheetData>
